--- a/Files/Microsoft Relative Valuation Model.xlsx
+++ b/Files/Microsoft Relative Valuation Model.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ll679_cam_ac_uk/Documents/Part IB/Other/CamSIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Desktop\Portfolio Website\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="8_{9C49AC2E-1D9E-47C7-8508-91D6A648F877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F454C2-FBDD-4AF1-B939-6488E5B3FD73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF5811-6CD9-41CB-9AB8-C46044825901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{0AE0A879-FD9B-4FFC-B7D8-A3D02AE7C5E0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{0AE0A879-FD9B-4FFC-B7D8-A3D02AE7C5E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1" sheetId="1" r:id="rId1"/>
-    <sheet name="V2" sheetId="2" r:id="rId2"/>
-    <sheet name="Uber" sheetId="3" r:id="rId3"/>
+    <sheet name="MSFT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Companies</t>
   </si>
@@ -95,66 +93,6 @@
   </si>
   <si>
     <t>Meta Platforms Inc</t>
-  </si>
-  <si>
-    <t>Alphabet Inc.</t>
-  </si>
-  <si>
-    <t>Apple Inc.</t>
-  </si>
-  <si>
-    <t>TTM P/E</t>
-  </si>
-  <si>
-    <t>Forward P/E</t>
-  </si>
-  <si>
-    <t>PEG ratio (5-year expected)</t>
-  </si>
-  <si>
-    <t>Meta Platforms, Inc.</t>
-  </si>
-  <si>
-    <t>Fortinet, Inc.</t>
-  </si>
-  <si>
-    <t>VMware, Inc.</t>
-  </si>
-  <si>
-    <t>Oracle Corporation</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Average Implied Share Price</t>
-  </si>
-  <si>
-    <t>Uber</t>
-  </si>
-  <si>
-    <t>P/S</t>
-  </si>
-  <si>
-    <t>P/B</t>
-  </si>
-  <si>
-    <t>DoorDash, Inc.</t>
-  </si>
-  <si>
-    <t>Just Eat Takeaway.com N.V.</t>
-  </si>
-  <si>
-    <t>Deliveroo plc</t>
-  </si>
-  <si>
-    <t>Lyft, Inc.</t>
-  </si>
-  <si>
-    <t>DiDi Global Inc.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -164,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(0.0\x_);\(0.0\x\);_(&quot;–&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +118,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
@@ -233,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,12 +175,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,14 +192,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -418,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59840E37-B4F7-4469-ADA6-7910ED5705AE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,358 +759,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B49D465-755B-4471-81C3-D37E2C8901C5}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>32.69</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>24.09</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>28.57</v>
-      </c>
-      <c r="C6" s="3">
-        <v>25.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>26.69</v>
-      </c>
-      <c r="C7" s="3">
-        <v>17.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3">
-        <v>30.16</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18.149999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3">
-        <v>42.35</v>
-      </c>
-      <c r="C10" s="3">
-        <v>32.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44.3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5">
-        <f>MEDIAN(B5:B11)</f>
-        <v>28.57</v>
-      </c>
-      <c r="C13" s="5">
-        <f>MEDIAN(C5:C11)</f>
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10.32</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <f>B13*B15</f>
-        <v>294.8424</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" ref="C16" si="0">C13*C15</f>
-        <v>190.404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="7">
-        <f>AVERAGE(B16:C16)</f>
-        <v>242.6232</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2">
-        <v>337.31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9">
-        <f>B18/B19-1</f>
-        <v>-0.28071151166582675</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a575893f-6266-403c-8794-47236f1576ac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642C2BA5-24CC-478C-88D6-F28732D43F5B}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2.48</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10.08</v>
-      </c>
-      <c r="D3" s="3">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>84.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.07</v>
-      </c>
-      <c r="D6" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.41</v>
-      </c>
-      <c r="D7" s="3">
-        <v>31.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.24</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>70.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5">
-        <f>MEDIAN(B5:B9)</f>
-        <v>0.82</v>
-      </c>
-      <c r="C11" s="5">
-        <f>MEDIAN(C5:C9)</f>
-        <v>3.07</v>
-      </c>
-      <c r="D11" s="5">
-        <f>MEDIAN(D5:D9)</f>
-        <v>51.435000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E7EE148FAE2AC4CBD31B2D462F9CF30" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bc6158c754bc228aa7415b4f55a56e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a575893f-6266-403c-8794-47236f1576ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6de4eac406daccd178ea41ad0d35bcdb" ns3:_="">
     <xsd:import namespace="a575893f-6266-403c-8794-47236f1576ac"/>
@@ -1333,24 +920,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a575893f-6266-403c-8794-47236f1576ac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BC32A6-D656-4C37-B0A0-BF6794A16F13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a575893f-6266-403c-8794-47236f1576ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901FD7-2F24-447D-9154-A87D2A5C0AF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C1A320-A4C0-43DF-8BDA-1DCCAB336E33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1366,28 +960,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BC32A6-D656-4C37-B0A0-BF6794A16F13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a575893f-6266-403c-8794-47236f1576ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901FD7-2F24-447D-9154-A87D2A5C0AF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Files/Microsoft Relative Valuation Model.xlsx
+++ b/Files/Microsoft Relative Valuation Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Desktop\Portfolio Website\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF5811-6CD9-41CB-9AB8-C46044825901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00EB9B7-76AE-4792-9D82-F0D8CFB658F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{0AE0A879-FD9B-4FFC-B7D8-A3D02AE7C5E0}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0AE0A879-FD9B-4FFC-B7D8-A3D02AE7C5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSFT" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59840E37-B4F7-4469-ADA6-7910ED5705AE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -760,23 +758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a575893f-6266-403c-8794-47236f1576ac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E7EE148FAE2AC4CBD31B2D462F9CF30" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bc6158c754bc228aa7415b4f55a56e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a575893f-6266-403c-8794-47236f1576ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6de4eac406daccd178ea41ad0d35bcdb" ns3:_="">
     <xsd:import namespace="a575893f-6266-403c-8794-47236f1576ac"/>
@@ -920,31 +901,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a575893f-6266-403c-8794-47236f1576ac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BC32A6-D656-4C37-B0A0-BF6794A16F13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a575893f-6266-403c-8794-47236f1576ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901FD7-2F24-447D-9154-A87D2A5C0AF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C1A320-A4C0-43DF-8BDA-1DCCAB336E33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -960,4 +934,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901FD7-2F24-447D-9154-A87D2A5C0AF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BC32A6-D656-4C37-B0A0-BF6794A16F13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a575893f-6266-403c-8794-47236f1576ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>